--- a/Exercício final SQL - RPG HROADS/Modelo Físico.xlsx
+++ b/Exercício final SQL - RPG HROADS/Modelo Físico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\SENAI-Sprint1-DataBase\Exercício final SQL - RPG HROADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Habilidade</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>(por a data atual)</t>
+  </si>
+  <si>
+    <t>ClasseHabilidade</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +222,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,6 +353,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,21 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,6 +384,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -667,16 +709,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="15"/>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -810,21 +852,29 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="E8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="15"/>
+      <c r="E9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -837,6 +887,12 @@
         <v>1</v>
       </c>
       <c r="D10" s="15"/>
+      <c r="E10" s="32">
+        <v>1</v>
+      </c>
+      <c r="F10" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -849,6 +905,12 @@
         <v>1.2</v>
       </c>
       <c r="D11" s="15"/>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -861,6 +923,12 @@
         <v>2</v>
       </c>
       <c r="D12" s="15"/>
+      <c r="E12" s="32">
+        <v>2</v>
+      </c>
+      <c r="F12" s="32">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -873,6 +941,12 @@
         <v>1</v>
       </c>
       <c r="D13" s="15"/>
+      <c r="E13" s="29">
+        <v>3</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -885,8 +959,12 @@
         <v>3.2</v>
       </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="33">
+        <v>4</v>
+      </c>
+      <c r="F14" s="33">
+        <v>3</v>
+      </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -904,8 +982,12 @@
         <v>21</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="30">
+        <v>4</v>
+      </c>
+      <c r="F15" s="30">
+        <v>2</v>
+      </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -923,8 +1005,12 @@
         <v>3</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="33">
+        <v>5</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -942,13 +1028,25 @@
         <v>21</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="30">
+        <v>6</v>
+      </c>
+      <c r="F17" s="30">
+        <v>3</v>
+      </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="33">
+        <v>7</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
@@ -1054,11 +1152,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A20:G20"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="3">
